--- a/data/evaluation/evaluation_South_Summer_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Sweet Potatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2411.847826086957</v>
+        <v>2527.5</v>
       </c>
       <c r="C3" t="n">
-        <v>21996890.60990338</v>
+        <v>22249765.00603864</v>
       </c>
       <c r="D3" t="n">
-        <v>4690.084286012712</v>
+        <v>4716.965656652446</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7677377982477557</v>
+        <v>0.7650677315981219</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2462.458159658968</v>
+        <v>2682.692080611018</v>
       </c>
       <c r="C4" t="n">
-        <v>20123622.65621287</v>
+        <v>26164701.92338406</v>
       </c>
       <c r="D4" t="n">
-        <v>4485.936095868161</v>
+        <v>5115.144369749896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7875173819676562</v>
+        <v>0.7237304406023477</v>
       </c>
     </row>
     <row r="5">
